--- a/Stock_Tracker_Fixed.xlsx
+++ b/Stock_Tracker_Fixed.xlsx
@@ -3178,9 +3178,7 @@
       <c r="U30" s="4" t="n">
         <v>267.75</v>
       </c>
-      <c r="V30" s="4" t="n">
-        <v>154.55</v>
-      </c>
+      <c r="V30" s="3" t="n"/>
       <c r="W30" s="4" t="n">
         <v>606.75</v>
       </c>
@@ -3269,9 +3267,7 @@
       <c r="U31" s="5" t="n">
         <v>268.2</v>
       </c>
-      <c r="V31" s="5" t="n">
-        <v>154.59</v>
-      </c>
+      <c r="V31" s="3" t="n"/>
       <c r="W31" s="5" t="n">
         <v>610.15</v>
       </c>
@@ -3360,9 +3356,7 @@
       <c r="U32" s="6" t="n">
         <v>268.1</v>
       </c>
-      <c r="V32" s="6" t="n">
-        <v>154.46</v>
-      </c>
+      <c r="V32" s="3" t="n"/>
       <c r="W32" s="6" t="n">
         <v>609</v>
       </c>
@@ -3451,9 +3445,7 @@
       <c r="U33" s="5" t="n">
         <v>268.55</v>
       </c>
-      <c r="V33" s="5" t="n">
-        <v>154.5</v>
-      </c>
+      <c r="V33" s="3" t="n"/>
       <c r="W33" s="5" t="n">
         <v>609.05</v>
       </c>
@@ -3542,9 +3534,7 @@
       <c r="U34" s="6" t="n">
         <v>268.15</v>
       </c>
-      <c r="V34" s="5" t="n">
-        <v>154.62</v>
-      </c>
+      <c r="V34" s="3" t="n"/>
       <c r="W34" s="6" t="n">
         <v>608.55</v>
       </c>
@@ -3633,9 +3623,7 @@
       <c r="U35" s="5" t="n">
         <v>268.5</v>
       </c>
-      <c r="V35" s="6" t="n">
-        <v>154.35</v>
-      </c>
+      <c r="V35" s="3" t="n"/>
       <c r="W35" s="5" t="n">
         <v>608.85</v>
       </c>
@@ -3724,9 +3712,7 @@
       <c r="U36" s="6" t="n">
         <v>268</v>
       </c>
-      <c r="V36" s="4" t="n">
-        <v>154.35</v>
-      </c>
+      <c r="V36" s="3" t="n"/>
       <c r="W36" s="5" t="n">
         <v>611.7</v>
       </c>
@@ -3815,9 +3801,7 @@
       <c r="U37" s="6" t="n">
         <v>267.45</v>
       </c>
-      <c r="V37" s="5" t="n">
-        <v>154.7</v>
-      </c>
+      <c r="V37" s="3" t="n"/>
       <c r="W37" s="6" t="n">
         <v>611.5</v>
       </c>
@@ -3906,9 +3890,7 @@
       <c r="U38" s="6" t="n">
         <v>267</v>
       </c>
-      <c r="V38" s="5" t="n">
-        <v>155.11</v>
-      </c>
+      <c r="V38" s="3" t="n"/>
       <c r="W38" s="5" t="n">
         <v>612.25</v>
       </c>
@@ -3997,9 +3979,7 @@
       <c r="U39" s="5" t="n">
         <v>267.6</v>
       </c>
-      <c r="V39" s="6" t="n">
-        <v>154.8</v>
-      </c>
+      <c r="V39" s="3" t="n"/>
       <c r="W39" s="6" t="n">
         <v>611.4</v>
       </c>
@@ -4088,9 +4068,7 @@
       <c r="U40" s="5" t="n">
         <v>267.65</v>
       </c>
-      <c r="V40" s="5" t="n">
-        <v>155.28</v>
-      </c>
+      <c r="V40" s="3" t="n"/>
       <c r="W40" s="5" t="n">
         <v>611.7</v>
       </c>
@@ -4179,9 +4157,7 @@
       <c r="U41" s="5" t="n">
         <v>267.9</v>
       </c>
-      <c r="V41" s="5" t="n">
-        <v>156.2</v>
-      </c>
+      <c r="V41" s="3" t="n"/>
       <c r="W41" s="5" t="n">
         <v>612.65</v>
       </c>
@@ -4270,9 +4246,7 @@
       <c r="U42" s="6" t="n">
         <v>267.4</v>
       </c>
-      <c r="V42" s="4" t="n">
-        <v>156.2</v>
-      </c>
+      <c r="V42" s="3" t="n"/>
       <c r="W42" s="6" t="n">
         <v>612.2</v>
       </c>
@@ -4361,9 +4335,7 @@
       <c r="U43" s="6" t="n">
         <v>267.1</v>
       </c>
-      <c r="V43" s="6" t="n">
-        <v>156.15</v>
-      </c>
+      <c r="V43" s="3" t="n"/>
       <c r="W43" s="5" t="n">
         <v>613.1</v>
       </c>
@@ -4452,9 +4424,7 @@
       <c r="U44" s="5" t="n">
         <v>267.5</v>
       </c>
-      <c r="V44" s="5" t="n">
-        <v>156.28</v>
-      </c>
+      <c r="V44" s="3" t="n"/>
       <c r="W44" s="6" t="n">
         <v>612.95</v>
       </c>
@@ -4543,9 +4513,7 @@
       <c r="U45" s="6" t="n">
         <v>267.4</v>
       </c>
-      <c r="V45" s="5" t="n">
-        <v>156.7</v>
-      </c>
+      <c r="V45" s="3" t="n"/>
       <c r="W45" s="5" t="n">
         <v>613.15</v>
       </c>
@@ -4634,9 +4602,7 @@
       <c r="U46" s="4" t="n">
         <v>267.4</v>
       </c>
-      <c r="V46" s="5" t="n">
-        <v>156.8</v>
-      </c>
+      <c r="V46" s="3" t="n"/>
       <c r="W46" s="5" t="n">
         <v>613.85</v>
       </c>
@@ -4725,9 +4691,7 @@
       <c r="U47" s="6" t="n">
         <v>266.55</v>
       </c>
-      <c r="V47" s="6" t="n">
-        <v>156.64</v>
-      </c>
+      <c r="V47" s="3" t="n"/>
       <c r="W47" s="6" t="n">
         <v>612.45</v>
       </c>
@@ -4816,9 +4780,7 @@
       <c r="U48" s="6" t="n">
         <v>266.45</v>
       </c>
-      <c r="V48" s="5" t="n">
-        <v>156.74</v>
-      </c>
+      <c r="V48" s="3" t="n"/>
       <c r="W48" s="5" t="n">
         <v>613.4</v>
       </c>
@@ -4907,9 +4869,7 @@
       <c r="U49" s="5" t="n">
         <v>267.25</v>
       </c>
-      <c r="V49" s="6" t="n">
-        <v>156.7</v>
-      </c>
+      <c r="V49" s="3" t="n"/>
       <c r="W49" s="6" t="n">
         <v>613.15</v>
       </c>
@@ -4998,9 +4958,7 @@
       <c r="U50" s="5" t="n">
         <v>267.45</v>
       </c>
-      <c r="V50" s="6" t="n">
-        <v>156.53</v>
-      </c>
+      <c r="V50" s="3" t="n"/>
       <c r="W50" s="5" t="n">
         <v>613.65</v>
       </c>
@@ -5089,9 +5047,7 @@
       <c r="U51" s="5" t="n">
         <v>267.75</v>
       </c>
-      <c r="V51" s="6" t="n">
-        <v>156.42</v>
-      </c>
+      <c r="V51" s="3" t="n"/>
       <c r="W51" s="6" t="n">
         <v>612.85</v>
       </c>
@@ -5180,9 +5136,7 @@
       <c r="U52" s="6" t="n">
         <v>266.9</v>
       </c>
-      <c r="V52" s="6" t="n">
-        <v>156.35</v>
-      </c>
+      <c r="V52" s="3" t="n"/>
       <c r="W52" s="5" t="n">
         <v>615.3</v>
       </c>
@@ -5271,9 +5225,7 @@
       <c r="U53" s="5" t="n">
         <v>267</v>
       </c>
-      <c r="V53" s="5" t="n">
-        <v>156.58</v>
-      </c>
+      <c r="V53" s="3" t="n"/>
       <c r="W53" s="5" t="n">
         <v>618.35</v>
       </c>
@@ -5362,9 +5314,7 @@
       <c r="U54" s="5" t="n">
         <v>267.05</v>
       </c>
-      <c r="V54" s="5" t="n">
-        <v>156.67</v>
-      </c>
+      <c r="V54" s="3" t="n"/>
       <c r="W54" s="6" t="n">
         <v>616.55</v>
       </c>
@@ -5453,9 +5403,7 @@
       <c r="U55" s="6" t="n">
         <v>266.5</v>
       </c>
-      <c r="V55" s="5" t="n">
-        <v>156.95</v>
-      </c>
+      <c r="V55" s="3" t="n"/>
       <c r="W55" s="5" t="n">
         <v>616.7</v>
       </c>
@@ -48905,7 +48853,11 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D569" s="2" t="inlineStr"/>
+      <c r="D569" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
       <c r="E569" s="3" t="n"/>
       <c r="F569" s="3" t="n"/>
       <c r="G569" s="3" t="n"/>
@@ -48946,30 +48898,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D570" s="2" t="inlineStr"/>
-      <c r="E570" s="3" t="n"/>
-      <c r="F570" s="3" t="n"/>
-      <c r="G570" s="3" t="n"/>
-      <c r="H570" s="3" t="n"/>
-      <c r="I570" s="3" t="n"/>
-      <c r="J570" s="3" t="n"/>
-      <c r="K570" s="3" t="n"/>
-      <c r="L570" s="3" t="n"/>
-      <c r="M570" s="3" t="n"/>
-      <c r="N570" s="3" t="n"/>
-      <c r="O570" s="3" t="n"/>
-      <c r="P570" s="3" t="n"/>
-      <c r="Q570" s="3" t="n"/>
-      <c r="R570" s="3" t="n"/>
-      <c r="S570" s="3" t="n"/>
-      <c r="T570" s="3" t="n"/>
-      <c r="U570" s="3" t="n"/>
-      <c r="V570" s="3" t="n"/>
-      <c r="W570" s="3" t="n"/>
-      <c r="X570" s="3" t="n"/>
-      <c r="Y570" s="3" t="n"/>
-      <c r="Z570" s="3" t="n"/>
-      <c r="AA570" s="3" t="n"/>
+      <c r="D570" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E570" s="4" t="n">
+        <v>1383.6</v>
+      </c>
+      <c r="F570" s="4" t="n">
+        <v>1619.1</v>
+      </c>
+      <c r="G570" s="4" t="n">
+        <v>934.25</v>
+      </c>
+      <c r="H570" s="4" t="n">
+        <v>1358</v>
+      </c>
+      <c r="I570" s="4" t="n">
+        <v>1061.3</v>
+      </c>
+      <c r="J570" s="4" t="n">
+        <v>409.2</v>
+      </c>
+      <c r="K570" s="4" t="n">
+        <v>929.8</v>
+      </c>
+      <c r="L570" s="4" t="n">
+        <v>650.45</v>
+      </c>
+      <c r="M570" s="4" t="n">
+        <v>706.9</v>
+      </c>
+      <c r="N570" s="4" t="n">
+        <v>672</v>
+      </c>
+      <c r="O570" s="4" t="n">
+        <v>192.81</v>
+      </c>
+      <c r="P570" s="4" t="n">
+        <v>293.6</v>
+      </c>
+      <c r="Q570" s="4" t="n">
+        <v>486.15</v>
+      </c>
+      <c r="R570" s="4" t="n">
+        <v>508.25</v>
+      </c>
+      <c r="S570" s="4" t="n">
+        <v>1684</v>
+      </c>
+      <c r="T570" s="4" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="U570" s="4" t="n">
+        <v>285.65</v>
+      </c>
+      <c r="V570" s="4" t="n">
+        <v>176.93</v>
+      </c>
+      <c r="W570" s="4" t="n">
+        <v>722.55</v>
+      </c>
+      <c r="X570" s="4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y570" s="4" t="n">
+        <v>1110.5</v>
+      </c>
+      <c r="Z570" s="4" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="AA570" s="4" t="n">
+        <v>319.15</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="inlineStr">
@@ -48987,30 +48989,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D571" s="2" t="inlineStr"/>
-      <c r="E571" s="3" t="n"/>
-      <c r="F571" s="3" t="n"/>
-      <c r="G571" s="3" t="n"/>
-      <c r="H571" s="3" t="n"/>
-      <c r="I571" s="3" t="n"/>
-      <c r="J571" s="3" t="n"/>
-      <c r="K571" s="3" t="n"/>
-      <c r="L571" s="3" t="n"/>
-      <c r="M571" s="3" t="n"/>
-      <c r="N571" s="3" t="n"/>
-      <c r="O571" s="3" t="n"/>
-      <c r="P571" s="3" t="n"/>
-      <c r="Q571" s="3" t="n"/>
-      <c r="R571" s="3" t="n"/>
-      <c r="S571" s="3" t="n"/>
-      <c r="T571" s="3" t="n"/>
-      <c r="U571" s="3" t="n"/>
-      <c r="V571" s="3" t="n"/>
-      <c r="W571" s="3" t="n"/>
-      <c r="X571" s="3" t="n"/>
-      <c r="Y571" s="3" t="n"/>
-      <c r="Z571" s="3" t="n"/>
-      <c r="AA571" s="3" t="n"/>
+      <c r="D571" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E571" s="5" t="n">
+        <v>1387.6</v>
+      </c>
+      <c r="F571" s="5" t="n">
+        <v>1630.2</v>
+      </c>
+      <c r="G571" s="5" t="n">
+        <v>935.7</v>
+      </c>
+      <c r="H571" s="5" t="n">
+        <v>1363.6</v>
+      </c>
+      <c r="I571" s="5" t="n">
+        <v>1063.8</v>
+      </c>
+      <c r="J571" s="6" t="n">
+        <v>408</v>
+      </c>
+      <c r="K571" s="6" t="n">
+        <v>928.45</v>
+      </c>
+      <c r="L571" s="5" t="n">
+        <v>656.1</v>
+      </c>
+      <c r="M571" s="6" t="n">
+        <v>705.3</v>
+      </c>
+      <c r="N571" s="5" t="n">
+        <v>679.9</v>
+      </c>
+      <c r="O571" s="5" t="n">
+        <v>193.23</v>
+      </c>
+      <c r="P571" s="5" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="Q571" s="5" t="n">
+        <v>488.65</v>
+      </c>
+      <c r="R571" s="5" t="n">
+        <v>510</v>
+      </c>
+      <c r="S571" s="5" t="n">
+        <v>1689.1</v>
+      </c>
+      <c r="T571" s="5" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="U571" s="5" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="V571" s="5" t="n">
+        <v>178.87</v>
+      </c>
+      <c r="W571" s="6" t="n">
+        <v>719.8</v>
+      </c>
+      <c r="X571" s="5" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="Y571" s="5" t="n">
+        <v>1122.5</v>
+      </c>
+      <c r="Z571" s="5" t="n">
+        <v>335</v>
+      </c>
+      <c r="AA571" s="5" t="n">
+        <v>322.1</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="inlineStr">
@@ -49028,30 +49080,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D572" s="2" t="inlineStr"/>
-      <c r="E572" s="3" t="n"/>
-      <c r="F572" s="3" t="n"/>
-      <c r="G572" s="3" t="n"/>
-      <c r="H572" s="3" t="n"/>
-      <c r="I572" s="3" t="n"/>
-      <c r="J572" s="3" t="n"/>
-      <c r="K572" s="3" t="n"/>
-      <c r="L572" s="3" t="n"/>
-      <c r="M572" s="3" t="n"/>
-      <c r="N572" s="3" t="n"/>
-      <c r="O572" s="3" t="n"/>
-      <c r="P572" s="3" t="n"/>
-      <c r="Q572" s="3" t="n"/>
-      <c r="R572" s="3" t="n"/>
-      <c r="S572" s="3" t="n"/>
-      <c r="T572" s="3" t="n"/>
-      <c r="U572" s="3" t="n"/>
-      <c r="V572" s="3" t="n"/>
-      <c r="W572" s="3" t="n"/>
-      <c r="X572" s="3" t="n"/>
-      <c r="Y572" s="3" t="n"/>
-      <c r="Z572" s="3" t="n"/>
-      <c r="AA572" s="3" t="n"/>
+      <c r="D572" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E572" s="5" t="n">
+        <v>1388.9</v>
+      </c>
+      <c r="F572" s="6" t="n">
+        <v>1625</v>
+      </c>
+      <c r="G572" s="5" t="n">
+        <v>936.9</v>
+      </c>
+      <c r="H572" s="5" t="n">
+        <v>1364.2</v>
+      </c>
+      <c r="I572" s="5" t="n">
+        <v>1065.9</v>
+      </c>
+      <c r="J572" s="5" t="n">
+        <v>408.1</v>
+      </c>
+      <c r="K572" s="5" t="n">
+        <v>929.05</v>
+      </c>
+      <c r="L572" s="6" t="n">
+        <v>653.45</v>
+      </c>
+      <c r="M572" s="5" t="n">
+        <v>711.3</v>
+      </c>
+      <c r="N572" s="6" t="n">
+        <v>679</v>
+      </c>
+      <c r="O572" s="5" t="n">
+        <v>194</v>
+      </c>
+      <c r="P572" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q572" s="6" t="n">
+        <v>488.5</v>
+      </c>
+      <c r="R572" s="5" t="n">
+        <v>513.6</v>
+      </c>
+      <c r="S572" s="5" t="n">
+        <v>1693.5</v>
+      </c>
+      <c r="T572" s="6" t="n">
+        <v>195.93</v>
+      </c>
+      <c r="U572" s="6" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="V572" s="5" t="n">
+        <v>181.69</v>
+      </c>
+      <c r="W572" s="5" t="n">
+        <v>723.5</v>
+      </c>
+      <c r="X572" s="5" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="Y572" s="6" t="n">
+        <v>1119.7</v>
+      </c>
+      <c r="Z572" s="5" t="n">
+        <v>335.75</v>
+      </c>
+      <c r="AA572" s="5" t="n">
+        <v>322.35</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="inlineStr">
@@ -49069,30 +49171,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D573" s="2" t="inlineStr"/>
-      <c r="E573" s="3" t="n"/>
-      <c r="F573" s="3" t="n"/>
-      <c r="G573" s="3" t="n"/>
-      <c r="H573" s="3" t="n"/>
-      <c r="I573" s="3" t="n"/>
-      <c r="J573" s="3" t="n"/>
-      <c r="K573" s="3" t="n"/>
-      <c r="L573" s="3" t="n"/>
-      <c r="M573" s="3" t="n"/>
-      <c r="N573" s="3" t="n"/>
-      <c r="O573" s="3" t="n"/>
-      <c r="P573" s="3" t="n"/>
-      <c r="Q573" s="3" t="n"/>
-      <c r="R573" s="3" t="n"/>
-      <c r="S573" s="3" t="n"/>
-      <c r="T573" s="3" t="n"/>
-      <c r="U573" s="3" t="n"/>
-      <c r="V573" s="3" t="n"/>
-      <c r="W573" s="3" t="n"/>
-      <c r="X573" s="3" t="n"/>
-      <c r="Y573" s="3" t="n"/>
-      <c r="Z573" s="3" t="n"/>
-      <c r="AA573" s="3" t="n"/>
+      <c r="D573" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E573" s="6" t="n">
+        <v>1388.2</v>
+      </c>
+      <c r="F573" s="6" t="n">
+        <v>1621.8</v>
+      </c>
+      <c r="G573" s="6" t="n">
+        <v>934.05</v>
+      </c>
+      <c r="H573" s="5" t="n">
+        <v>1365.8</v>
+      </c>
+      <c r="I573" s="5" t="n">
+        <v>1066.65</v>
+      </c>
+      <c r="J573" s="6" t="n">
+        <v>407.7</v>
+      </c>
+      <c r="K573" s="6" t="n">
+        <v>927.75</v>
+      </c>
+      <c r="L573" s="5" t="n">
+        <v>653.8</v>
+      </c>
+      <c r="M573" s="6" t="n">
+        <v>707.95</v>
+      </c>
+      <c r="N573" s="6" t="n">
+        <v>671.9</v>
+      </c>
+      <c r="O573" s="6" t="n">
+        <v>193.63</v>
+      </c>
+      <c r="P573" s="6" t="n">
+        <v>299.85</v>
+      </c>
+      <c r="Q573" s="6" t="n">
+        <v>487.8</v>
+      </c>
+      <c r="R573" s="6" t="n">
+        <v>508</v>
+      </c>
+      <c r="S573" s="5" t="n">
+        <v>1694</v>
+      </c>
+      <c r="T573" s="6" t="n">
+        <v>194.25</v>
+      </c>
+      <c r="U573" s="5" t="n">
+        <v>286.65</v>
+      </c>
+      <c r="V573" s="6" t="n">
+        <v>181.27</v>
+      </c>
+      <c r="W573" s="6" t="n">
+        <v>717.95</v>
+      </c>
+      <c r="X573" s="5" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="Y573" s="5" t="n">
+        <v>1122.5</v>
+      </c>
+      <c r="Z573" s="5" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="AA573" s="5" t="n">
+        <v>324.3</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="inlineStr">
@@ -49110,30 +49262,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D574" s="2" t="inlineStr"/>
-      <c r="E574" s="3" t="n"/>
-      <c r="F574" s="3" t="n"/>
-      <c r="G574" s="3" t="n"/>
-      <c r="H574" s="3" t="n"/>
-      <c r="I574" s="3" t="n"/>
-      <c r="J574" s="3" t="n"/>
-      <c r="K574" s="3" t="n"/>
-      <c r="L574" s="3" t="n"/>
-      <c r="M574" s="3" t="n"/>
-      <c r="N574" s="3" t="n"/>
-      <c r="O574" s="3" t="n"/>
-      <c r="P574" s="3" t="n"/>
-      <c r="Q574" s="3" t="n"/>
-      <c r="R574" s="3" t="n"/>
-      <c r="S574" s="3" t="n"/>
-      <c r="T574" s="3" t="n"/>
-      <c r="U574" s="3" t="n"/>
-      <c r="V574" s="3" t="n"/>
-      <c r="W574" s="3" t="n"/>
-      <c r="X574" s="3" t="n"/>
-      <c r="Y574" s="3" t="n"/>
-      <c r="Z574" s="3" t="n"/>
-      <c r="AA574" s="3" t="n"/>
+      <c r="D574" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E574" s="6" t="n">
+        <v>1387.6</v>
+      </c>
+      <c r="F574" s="4" t="n">
+        <v>1621.8</v>
+      </c>
+      <c r="G574" s="5" t="n">
+        <v>936.1</v>
+      </c>
+      <c r="H574" s="5" t="n">
+        <v>1370.3</v>
+      </c>
+      <c r="I574" s="5" t="n">
+        <v>1067.2</v>
+      </c>
+      <c r="J574" s="5" t="n">
+        <v>408.8</v>
+      </c>
+      <c r="K574" s="5" t="n">
+        <v>928.45</v>
+      </c>
+      <c r="L574" s="6" t="n">
+        <v>653.65</v>
+      </c>
+      <c r="M574" s="5" t="n">
+        <v>708.8</v>
+      </c>
+      <c r="N574" s="6" t="n">
+        <v>666.65</v>
+      </c>
+      <c r="O574" s="5" t="n">
+        <v>193.72</v>
+      </c>
+      <c r="P574" s="6" t="n">
+        <v>299.8</v>
+      </c>
+      <c r="Q574" s="5" t="n">
+        <v>488.15</v>
+      </c>
+      <c r="R574" s="6" t="n">
+        <v>504</v>
+      </c>
+      <c r="S574" s="6" t="n">
+        <v>1690.7</v>
+      </c>
+      <c r="T574" s="6" t="n">
+        <v>193.81</v>
+      </c>
+      <c r="U574" s="6" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="V574" s="6" t="n">
+        <v>180.48</v>
+      </c>
+      <c r="W574" s="6" t="n">
+        <v>713.75</v>
+      </c>
+      <c r="X574" s="5" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="Y574" s="5" t="n">
+        <v>1126.5</v>
+      </c>
+      <c r="Z574" s="5" t="n">
+        <v>337.45</v>
+      </c>
+      <c r="AA574" s="6" t="n">
+        <v>322.5</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="inlineStr">
@@ -49151,30 +49353,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D575" s="2" t="inlineStr"/>
-      <c r="E575" s="3" t="n"/>
-      <c r="F575" s="3" t="n"/>
-      <c r="G575" s="3" t="n"/>
-      <c r="H575" s="3" t="n"/>
-      <c r="I575" s="3" t="n"/>
-      <c r="J575" s="3" t="n"/>
-      <c r="K575" s="3" t="n"/>
-      <c r="L575" s="3" t="n"/>
-      <c r="M575" s="3" t="n"/>
-      <c r="N575" s="3" t="n"/>
-      <c r="O575" s="3" t="n"/>
-      <c r="P575" s="3" t="n"/>
-      <c r="Q575" s="3" t="n"/>
-      <c r="R575" s="3" t="n"/>
-      <c r="S575" s="3" t="n"/>
-      <c r="T575" s="3" t="n"/>
-      <c r="U575" s="3" t="n"/>
-      <c r="V575" s="3" t="n"/>
-      <c r="W575" s="3" t="n"/>
-      <c r="X575" s="3" t="n"/>
-      <c r="Y575" s="3" t="n"/>
-      <c r="Z575" s="3" t="n"/>
-      <c r="AA575" s="3" t="n"/>
+      <c r="D575" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E575" s="5" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="F575" s="6" t="n">
+        <v>1621.4</v>
+      </c>
+      <c r="G575" s="5" t="n">
+        <v>936.75</v>
+      </c>
+      <c r="H575" s="5" t="n">
+        <v>1373.7</v>
+      </c>
+      <c r="I575" s="5" t="n">
+        <v>1067.95</v>
+      </c>
+      <c r="J575" s="5" t="n">
+        <v>408.9</v>
+      </c>
+      <c r="K575" s="5" t="n">
+        <v>928.75</v>
+      </c>
+      <c r="L575" s="6" t="n">
+        <v>651.8</v>
+      </c>
+      <c r="M575" s="6" t="n">
+        <v>701.6</v>
+      </c>
+      <c r="N575" s="6" t="n">
+        <v>660.6</v>
+      </c>
+      <c r="O575" s="5" t="n">
+        <v>194.49</v>
+      </c>
+      <c r="P575" s="5" t="n">
+        <v>300.05</v>
+      </c>
+      <c r="Q575" s="5" t="n">
+        <v>488.55</v>
+      </c>
+      <c r="R575" s="4" t="n">
+        <v>504</v>
+      </c>
+      <c r="S575" s="5" t="n">
+        <v>1691.2</v>
+      </c>
+      <c r="T575" s="6" t="n">
+        <v>192.86</v>
+      </c>
+      <c r="U575" s="6" t="n">
+        <v>286</v>
+      </c>
+      <c r="V575" s="6" t="n">
+        <v>180.17</v>
+      </c>
+      <c r="W575" s="6" t="n">
+        <v>708.05</v>
+      </c>
+      <c r="X575" s="5" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="Y575" s="6" t="n">
+        <v>1123.8</v>
+      </c>
+      <c r="Z575" s="5" t="n">
+        <v>337.7</v>
+      </c>
+      <c r="AA575" s="6" t="n">
+        <v>322.35</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="inlineStr">
@@ -49192,30 +49444,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D576" s="2" t="inlineStr"/>
-      <c r="E576" s="3" t="n"/>
-      <c r="F576" s="3" t="n"/>
-      <c r="G576" s="3" t="n"/>
-      <c r="H576" s="3" t="n"/>
-      <c r="I576" s="3" t="n"/>
-      <c r="J576" s="3" t="n"/>
-      <c r="K576" s="3" t="n"/>
-      <c r="L576" s="3" t="n"/>
-      <c r="M576" s="3" t="n"/>
-      <c r="N576" s="3" t="n"/>
-      <c r="O576" s="3" t="n"/>
-      <c r="P576" s="3" t="n"/>
-      <c r="Q576" s="3" t="n"/>
-      <c r="R576" s="3" t="n"/>
-      <c r="S576" s="3" t="n"/>
-      <c r="T576" s="3" t="n"/>
-      <c r="U576" s="3" t="n"/>
-      <c r="V576" s="3" t="n"/>
-      <c r="W576" s="3" t="n"/>
-      <c r="X576" s="3" t="n"/>
-      <c r="Y576" s="3" t="n"/>
-      <c r="Z576" s="3" t="n"/>
-      <c r="AA576" s="3" t="n"/>
+      <c r="D576" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E576" s="6" t="n">
+        <v>1387.7</v>
+      </c>
+      <c r="F576" s="5" t="n">
+        <v>1623.2</v>
+      </c>
+      <c r="G576" s="6" t="n">
+        <v>936.15</v>
+      </c>
+      <c r="H576" s="5" t="n">
+        <v>1375.5</v>
+      </c>
+      <c r="I576" s="6" t="n">
+        <v>1066.8</v>
+      </c>
+      <c r="J576" s="6" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="K576" s="5" t="n">
+        <v>928.95</v>
+      </c>
+      <c r="L576" s="5" t="n">
+        <v>652</v>
+      </c>
+      <c r="M576" s="5" t="n">
+        <v>711</v>
+      </c>
+      <c r="N576" s="5" t="n">
+        <v>665.25</v>
+      </c>
+      <c r="O576" s="5" t="n">
+        <v>195.71</v>
+      </c>
+      <c r="P576" s="5" t="n">
+        <v>300.15</v>
+      </c>
+      <c r="Q576" s="5" t="n">
+        <v>488.9</v>
+      </c>
+      <c r="R576" s="6" t="n">
+        <v>502.4</v>
+      </c>
+      <c r="S576" s="5" t="n">
+        <v>1700.7</v>
+      </c>
+      <c r="T576" s="5" t="n">
+        <v>193.27</v>
+      </c>
+      <c r="U576" s="5" t="n">
+        <v>287.4</v>
+      </c>
+      <c r="V576" s="5" t="n">
+        <v>180.19</v>
+      </c>
+      <c r="W576" s="5" t="n">
+        <v>712.9</v>
+      </c>
+      <c r="X576" s="5" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y576" s="5" t="n">
+        <v>1127.9</v>
+      </c>
+      <c r="Z576" s="5" t="n">
+        <v>339.4</v>
+      </c>
+      <c r="AA576" s="6" t="n">
+        <v>321.75</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="inlineStr">
@@ -49233,30 +49535,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D577" s="2" t="inlineStr"/>
-      <c r="E577" s="3" t="n"/>
-      <c r="F577" s="3" t="n"/>
-      <c r="G577" s="3" t="n"/>
-      <c r="H577" s="3" t="n"/>
-      <c r="I577" s="3" t="n"/>
-      <c r="J577" s="3" t="n"/>
-      <c r="K577" s="3" t="n"/>
-      <c r="L577" s="3" t="n"/>
-      <c r="M577" s="3" t="n"/>
-      <c r="N577" s="3" t="n"/>
-      <c r="O577" s="3" t="n"/>
-      <c r="P577" s="3" t="n"/>
-      <c r="Q577" s="3" t="n"/>
-      <c r="R577" s="3" t="n"/>
-      <c r="S577" s="3" t="n"/>
-      <c r="T577" s="3" t="n"/>
-      <c r="U577" s="3" t="n"/>
-      <c r="V577" s="3" t="n"/>
-      <c r="W577" s="3" t="n"/>
-      <c r="X577" s="3" t="n"/>
-      <c r="Y577" s="3" t="n"/>
-      <c r="Z577" s="3" t="n"/>
-      <c r="AA577" s="3" t="n"/>
+      <c r="D577" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E577" s="6" t="n">
+        <v>1386.9</v>
+      </c>
+      <c r="F577" s="5" t="n">
+        <v>1625</v>
+      </c>
+      <c r="G577" s="6" t="n">
+        <v>936.1</v>
+      </c>
+      <c r="H577" s="6" t="n">
+        <v>1372.7</v>
+      </c>
+      <c r="I577" s="6" t="n">
+        <v>1065.1</v>
+      </c>
+      <c r="J577" s="6" t="n">
+        <v>407.8</v>
+      </c>
+      <c r="K577" s="5" t="n">
+        <v>929.6</v>
+      </c>
+      <c r="L577" s="5" t="n">
+        <v>655.85</v>
+      </c>
+      <c r="M577" s="6" t="n">
+        <v>710.45</v>
+      </c>
+      <c r="N577" s="6" t="n">
+        <v>664.5</v>
+      </c>
+      <c r="O577" s="5" t="n">
+        <v>196.2</v>
+      </c>
+      <c r="P577" s="5" t="n">
+        <v>301.1</v>
+      </c>
+      <c r="Q577" s="4" t="n">
+        <v>488.9</v>
+      </c>
+      <c r="R577" s="5" t="n">
+        <v>503.55</v>
+      </c>
+      <c r="S577" s="6" t="n">
+        <v>1700.4</v>
+      </c>
+      <c r="T577" s="5" t="n">
+        <v>193.84</v>
+      </c>
+      <c r="U577" s="5" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="V577" s="5" t="n">
+        <v>180.89</v>
+      </c>
+      <c r="W577" s="6" t="n">
+        <v>711.8</v>
+      </c>
+      <c r="X577" s="5" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="Y577" s="5" t="n">
+        <v>1129.8</v>
+      </c>
+      <c r="Z577" s="5" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="AA577" s="6" t="n">
+        <v>320.35</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="inlineStr">
@@ -49274,30 +49626,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D578" s="2" t="inlineStr"/>
-      <c r="E578" s="3" t="n"/>
-      <c r="F578" s="3" t="n"/>
-      <c r="G578" s="3" t="n"/>
-      <c r="H578" s="3" t="n"/>
-      <c r="I578" s="3" t="n"/>
-      <c r="J578" s="3" t="n"/>
-      <c r="K578" s="3" t="n"/>
-      <c r="L578" s="3" t="n"/>
-      <c r="M578" s="3" t="n"/>
-      <c r="N578" s="3" t="n"/>
-      <c r="O578" s="3" t="n"/>
-      <c r="P578" s="3" t="n"/>
-      <c r="Q578" s="3" t="n"/>
-      <c r="R578" s="3" t="n"/>
-      <c r="S578" s="3" t="n"/>
-      <c r="T578" s="3" t="n"/>
-      <c r="U578" s="3" t="n"/>
-      <c r="V578" s="3" t="n"/>
-      <c r="W578" s="3" t="n"/>
-      <c r="X578" s="3" t="n"/>
-      <c r="Y578" s="3" t="n"/>
-      <c r="Z578" s="3" t="n"/>
-      <c r="AA578" s="3" t="n"/>
+      <c r="D578" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E578" s="5" t="n">
+        <v>1387.6</v>
+      </c>
+      <c r="F578" s="6" t="n">
+        <v>1621.1</v>
+      </c>
+      <c r="G578" s="6" t="n">
+        <v>934.3</v>
+      </c>
+      <c r="H578" s="6" t="n">
+        <v>1371.3</v>
+      </c>
+      <c r="I578" s="5" t="n">
+        <v>1066.85</v>
+      </c>
+      <c r="J578" s="6" t="n">
+        <v>406.4</v>
+      </c>
+      <c r="K578" s="5" t="n">
+        <v>931.6</v>
+      </c>
+      <c r="L578" s="6" t="n">
+        <v>655.45</v>
+      </c>
+      <c r="M578" s="6" t="n">
+        <v>709</v>
+      </c>
+      <c r="N578" s="5" t="n">
+        <v>665.5</v>
+      </c>
+      <c r="O578" s="5" t="n">
+        <v>197.03</v>
+      </c>
+      <c r="P578" s="6" t="n">
+        <v>301</v>
+      </c>
+      <c r="Q578" s="6" t="n">
+        <v>488.7</v>
+      </c>
+      <c r="R578" s="5" t="n">
+        <v>504.85</v>
+      </c>
+      <c r="S578" s="6" t="n">
+        <v>1697.5</v>
+      </c>
+      <c r="T578" s="6" t="n">
+        <v>192.76</v>
+      </c>
+      <c r="U578" s="6" t="n">
+        <v>287.3</v>
+      </c>
+      <c r="V578" s="5" t="n">
+        <v>181.35</v>
+      </c>
+      <c r="W578" s="5" t="n">
+        <v>713.05</v>
+      </c>
+      <c r="X578" s="6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y578" s="5" t="n">
+        <v>1131.3</v>
+      </c>
+      <c r="Z578" s="6" t="n">
+        <v>338.9</v>
+      </c>
+      <c r="AA578" s="6" t="n">
+        <v>319.9</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="inlineStr">
@@ -49315,30 +49717,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D579" s="2" t="inlineStr"/>
-      <c r="E579" s="3" t="n"/>
-      <c r="F579" s="3" t="n"/>
-      <c r="G579" s="3" t="n"/>
-      <c r="H579" s="3" t="n"/>
-      <c r="I579" s="3" t="n"/>
-      <c r="J579" s="3" t="n"/>
-      <c r="K579" s="3" t="n"/>
-      <c r="L579" s="3" t="n"/>
-      <c r="M579" s="3" t="n"/>
-      <c r="N579" s="3" t="n"/>
-      <c r="O579" s="3" t="n"/>
-      <c r="P579" s="3" t="n"/>
-      <c r="Q579" s="3" t="n"/>
-      <c r="R579" s="3" t="n"/>
-      <c r="S579" s="3" t="n"/>
-      <c r="T579" s="3" t="n"/>
-      <c r="U579" s="3" t="n"/>
-      <c r="V579" s="3" t="n"/>
-      <c r="W579" s="3" t="n"/>
-      <c r="X579" s="3" t="n"/>
-      <c r="Y579" s="3" t="n"/>
-      <c r="Z579" s="3" t="n"/>
-      <c r="AA579" s="3" t="n"/>
+      <c r="D579" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E579" s="6" t="n">
+        <v>1387.4</v>
+      </c>
+      <c r="F579" s="6" t="n">
+        <v>1620.3</v>
+      </c>
+      <c r="G579" s="6" t="n">
+        <v>932.95</v>
+      </c>
+      <c r="H579" s="5" t="n">
+        <v>1373.1</v>
+      </c>
+      <c r="I579" s="5" t="n">
+        <v>1072</v>
+      </c>
+      <c r="J579" s="4" t="n">
+        <v>406.4</v>
+      </c>
+      <c r="K579" s="5" t="n">
+        <v>932.1</v>
+      </c>
+      <c r="L579" s="6" t="n">
+        <v>652.15</v>
+      </c>
+      <c r="M579" s="6" t="n">
+        <v>706.8</v>
+      </c>
+      <c r="N579" s="6" t="n">
+        <v>662.4</v>
+      </c>
+      <c r="O579" s="6" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="P579" s="6" t="n">
+        <v>300.9</v>
+      </c>
+      <c r="Q579" s="6" t="n">
+        <v>488.25</v>
+      </c>
+      <c r="R579" s="5" t="n">
+        <v>506.5</v>
+      </c>
+      <c r="S579" s="6" t="n">
+        <v>1695</v>
+      </c>
+      <c r="T579" s="5" t="n">
+        <v>192.88</v>
+      </c>
+      <c r="U579" s="6" t="n">
+        <v>287.15</v>
+      </c>
+      <c r="V579" s="5" t="n">
+        <v>181.69</v>
+      </c>
+      <c r="W579" s="6" t="n">
+        <v>713</v>
+      </c>
+      <c r="X579" s="5" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="Y579" s="5" t="n">
+        <v>1132.3</v>
+      </c>
+      <c r="Z579" s="6" t="n">
+        <v>337.9</v>
+      </c>
+      <c r="AA579" s="5" t="n">
+        <v>321.15</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="inlineStr">
@@ -49356,30 +49808,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D580" s="2" t="inlineStr"/>
-      <c r="E580" s="3" t="n"/>
-      <c r="F580" s="3" t="n"/>
-      <c r="G580" s="3" t="n"/>
-      <c r="H580" s="3" t="n"/>
-      <c r="I580" s="3" t="n"/>
-      <c r="J580" s="3" t="n"/>
-      <c r="K580" s="3" t="n"/>
-      <c r="L580" s="3" t="n"/>
-      <c r="M580" s="3" t="n"/>
-      <c r="N580" s="3" t="n"/>
-      <c r="O580" s="3" t="n"/>
-      <c r="P580" s="3" t="n"/>
-      <c r="Q580" s="3" t="n"/>
-      <c r="R580" s="3" t="n"/>
-      <c r="S580" s="3" t="n"/>
-      <c r="T580" s="3" t="n"/>
-      <c r="U580" s="3" t="n"/>
-      <c r="V580" s="3" t="n"/>
-      <c r="W580" s="3" t="n"/>
-      <c r="X580" s="3" t="n"/>
-      <c r="Y580" s="3" t="n"/>
-      <c r="Z580" s="3" t="n"/>
-      <c r="AA580" s="3" t="n"/>
+      <c r="D580" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E580" s="5" t="n">
+        <v>1389.3</v>
+      </c>
+      <c r="F580" s="5" t="n">
+        <v>1625.7</v>
+      </c>
+      <c r="G580" s="5" t="n">
+        <v>934.7</v>
+      </c>
+      <c r="H580" s="5" t="n">
+        <v>1374.9</v>
+      </c>
+      <c r="I580" s="5" t="n">
+        <v>1073.35</v>
+      </c>
+      <c r="J580" s="6" t="n">
+        <v>406.2</v>
+      </c>
+      <c r="K580" s="5" t="n">
+        <v>934.85</v>
+      </c>
+      <c r="L580" s="5" t="n">
+        <v>657.5</v>
+      </c>
+      <c r="M580" s="6" t="n">
+        <v>706.5</v>
+      </c>
+      <c r="N580" s="6" t="n">
+        <v>659.75</v>
+      </c>
+      <c r="O580" s="5" t="n">
+        <v>196.69</v>
+      </c>
+      <c r="P580" s="5" t="n">
+        <v>301.8</v>
+      </c>
+      <c r="Q580" s="5" t="n">
+        <v>490.3</v>
+      </c>
+      <c r="R580" s="5" t="n">
+        <v>507.05</v>
+      </c>
+      <c r="S580" s="5" t="n">
+        <v>1697.4</v>
+      </c>
+      <c r="T580" s="6" t="n">
+        <v>192.66</v>
+      </c>
+      <c r="U580" s="5" t="n">
+        <v>287.55</v>
+      </c>
+      <c r="V580" s="6" t="n">
+        <v>181.48</v>
+      </c>
+      <c r="W580" s="6" t="n">
+        <v>710.2</v>
+      </c>
+      <c r="X580" s="6" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="Y580" s="6" t="n">
+        <v>1128.9</v>
+      </c>
+      <c r="Z580" s="5" t="n">
+        <v>339.75</v>
+      </c>
+      <c r="AA580" s="6" t="n">
+        <v>320.6</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="inlineStr">
@@ -49397,30 +49899,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D581" s="2" t="inlineStr"/>
-      <c r="E581" s="3" t="n"/>
-      <c r="F581" s="3" t="n"/>
-      <c r="G581" s="3" t="n"/>
-      <c r="H581" s="3" t="n"/>
-      <c r="I581" s="3" t="n"/>
-      <c r="J581" s="3" t="n"/>
-      <c r="K581" s="3" t="n"/>
-      <c r="L581" s="3" t="n"/>
-      <c r="M581" s="3" t="n"/>
-      <c r="N581" s="3" t="n"/>
-      <c r="O581" s="3" t="n"/>
-      <c r="P581" s="3" t="n"/>
-      <c r="Q581" s="3" t="n"/>
-      <c r="R581" s="3" t="n"/>
-      <c r="S581" s="3" t="n"/>
-      <c r="T581" s="3" t="n"/>
-      <c r="U581" s="3" t="n"/>
-      <c r="V581" s="3" t="n"/>
-      <c r="W581" s="3" t="n"/>
-      <c r="X581" s="3" t="n"/>
-      <c r="Y581" s="3" t="n"/>
-      <c r="Z581" s="3" t="n"/>
-      <c r="AA581" s="3" t="n"/>
+      <c r="D581" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E581" s="6" t="n">
+        <v>1387.9</v>
+      </c>
+      <c r="F581" s="6" t="n">
+        <v>1625</v>
+      </c>
+      <c r="G581" s="6" t="n">
+        <v>933.25</v>
+      </c>
+      <c r="H581" s="6" t="n">
+        <v>1372.1</v>
+      </c>
+      <c r="I581" s="5" t="n">
+        <v>1075.45</v>
+      </c>
+      <c r="J581" s="5" t="n">
+        <v>406.3</v>
+      </c>
+      <c r="K581" s="6" t="n">
+        <v>934.7</v>
+      </c>
+      <c r="L581" s="6" t="n">
+        <v>655.75</v>
+      </c>
+      <c r="M581" s="6" t="n">
+        <v>698</v>
+      </c>
+      <c r="N581" s="6" t="n">
+        <v>656.65</v>
+      </c>
+      <c r="O581" s="6" t="n">
+        <v>195.89</v>
+      </c>
+      <c r="P581" s="6" t="n">
+        <v>300.9</v>
+      </c>
+      <c r="Q581" s="4" t="n">
+        <v>490.3</v>
+      </c>
+      <c r="R581" s="6" t="n">
+        <v>506.9</v>
+      </c>
+      <c r="S581" s="5" t="n">
+        <v>1699.2</v>
+      </c>
+      <c r="T581" s="6" t="n">
+        <v>191.58</v>
+      </c>
+      <c r="U581" s="6" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="V581" s="5" t="n">
+        <v>181.73</v>
+      </c>
+      <c r="W581" s="6" t="n">
+        <v>706.7</v>
+      </c>
+      <c r="X581" s="6" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="Y581" s="5" t="n">
+        <v>1129.2</v>
+      </c>
+      <c r="Z581" s="6" t="n">
+        <v>338.15</v>
+      </c>
+      <c r="AA581" s="6" t="n">
+        <v>320.2</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="inlineStr">
@@ -49438,30 +49990,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D582" s="2" t="inlineStr"/>
-      <c r="E582" s="3" t="n"/>
-      <c r="F582" s="3" t="n"/>
-      <c r="G582" s="3" t="n"/>
-      <c r="H582" s="3" t="n"/>
-      <c r="I582" s="3" t="n"/>
-      <c r="J582" s="3" t="n"/>
-      <c r="K582" s="3" t="n"/>
-      <c r="L582" s="3" t="n"/>
-      <c r="M582" s="3" t="n"/>
-      <c r="N582" s="3" t="n"/>
-      <c r="O582" s="3" t="n"/>
-      <c r="P582" s="3" t="n"/>
-      <c r="Q582" s="3" t="n"/>
-      <c r="R582" s="3" t="n"/>
-      <c r="S582" s="3" t="n"/>
-      <c r="T582" s="3" t="n"/>
-      <c r="U582" s="3" t="n"/>
-      <c r="V582" s="3" t="n"/>
-      <c r="W582" s="3" t="n"/>
-      <c r="X582" s="3" t="n"/>
-      <c r="Y582" s="3" t="n"/>
-      <c r="Z582" s="3" t="n"/>
-      <c r="AA582" s="3" t="n"/>
+      <c r="D582" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E582" s="5" t="n">
+        <v>1389.2</v>
+      </c>
+      <c r="F582" s="5" t="n">
+        <v>1625.6</v>
+      </c>
+      <c r="G582" s="5" t="n">
+        <v>934.4</v>
+      </c>
+      <c r="H582" s="5" t="n">
+        <v>1376.6</v>
+      </c>
+      <c r="I582" s="5" t="n">
+        <v>1078</v>
+      </c>
+      <c r="J582" s="5" t="n">
+        <v>408</v>
+      </c>
+      <c r="K582" s="5" t="n">
+        <v>936.45</v>
+      </c>
+      <c r="L582" s="6" t="n">
+        <v>654.3</v>
+      </c>
+      <c r="M582" s="6" t="n">
+        <v>691.6</v>
+      </c>
+      <c r="N582" s="6" t="n">
+        <v>652.9</v>
+      </c>
+      <c r="O582" s="6" t="n">
+        <v>195.62</v>
+      </c>
+      <c r="P582" s="5" t="n">
+        <v>301.45</v>
+      </c>
+      <c r="Q582" s="6" t="n">
+        <v>489.6</v>
+      </c>
+      <c r="R582" s="6" t="n">
+        <v>506.35</v>
+      </c>
+      <c r="S582" s="6" t="n">
+        <v>1694.2</v>
+      </c>
+      <c r="T582" s="6" t="n">
+        <v>191.55</v>
+      </c>
+      <c r="U582" s="5" t="n">
+        <v>287.35</v>
+      </c>
+      <c r="V582" s="5" t="n">
+        <v>182.13</v>
+      </c>
+      <c r="W582" s="5" t="n">
+        <v>708.5</v>
+      </c>
+      <c r="X582" s="5" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="Y582" s="5" t="n">
+        <v>1133.4</v>
+      </c>
+      <c r="Z582" s="6" t="n">
+        <v>337.1</v>
+      </c>
+      <c r="AA582" s="5" t="n">
+        <v>320.9</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="inlineStr">
@@ -49479,30 +50081,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D583" s="2" t="inlineStr"/>
-      <c r="E583" s="3" t="n"/>
-      <c r="F583" s="3" t="n"/>
-      <c r="G583" s="3" t="n"/>
-      <c r="H583" s="3" t="n"/>
-      <c r="I583" s="3" t="n"/>
-      <c r="J583" s="3" t="n"/>
-      <c r="K583" s="3" t="n"/>
-      <c r="L583" s="3" t="n"/>
-      <c r="M583" s="3" t="n"/>
-      <c r="N583" s="3" t="n"/>
-      <c r="O583" s="3" t="n"/>
-      <c r="P583" s="3" t="n"/>
-      <c r="Q583" s="3" t="n"/>
-      <c r="R583" s="3" t="n"/>
-      <c r="S583" s="3" t="n"/>
-      <c r="T583" s="3" t="n"/>
-      <c r="U583" s="3" t="n"/>
-      <c r="V583" s="3" t="n"/>
-      <c r="W583" s="3" t="n"/>
-      <c r="X583" s="3" t="n"/>
-      <c r="Y583" s="3" t="n"/>
-      <c r="Z583" s="3" t="n"/>
-      <c r="AA583" s="3" t="n"/>
+      <c r="D583" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E583" s="5" t="n">
+        <v>1389.9</v>
+      </c>
+      <c r="F583" s="5" t="n">
+        <v>1626.9</v>
+      </c>
+      <c r="G583" s="6" t="n">
+        <v>933.2</v>
+      </c>
+      <c r="H583" s="5" t="n">
+        <v>1377.3</v>
+      </c>
+      <c r="I583" s="5" t="n">
+        <v>1079.35</v>
+      </c>
+      <c r="J583" s="5" t="n">
+        <v>408.3</v>
+      </c>
+      <c r="K583" s="6" t="n">
+        <v>936</v>
+      </c>
+      <c r="L583" s="5" t="n">
+        <v>655.55</v>
+      </c>
+      <c r="M583" s="5" t="n">
+        <v>695.2</v>
+      </c>
+      <c r="N583" s="6" t="n">
+        <v>652.55</v>
+      </c>
+      <c r="O583" s="6" t="n">
+        <v>195.47</v>
+      </c>
+      <c r="P583" s="6" t="n">
+        <v>301.15</v>
+      </c>
+      <c r="Q583" s="5" t="n">
+        <v>490.7</v>
+      </c>
+      <c r="R583" s="6" t="n">
+        <v>505.35</v>
+      </c>
+      <c r="S583" s="5" t="n">
+        <v>1695.7</v>
+      </c>
+      <c r="T583" s="5" t="n">
+        <v>191.59</v>
+      </c>
+      <c r="U583" s="6" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="V583" s="6" t="n">
+        <v>181.66</v>
+      </c>
+      <c r="W583" s="6" t="n">
+        <v>706.25</v>
+      </c>
+      <c r="X583" s="4" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="Y583" s="5" t="n">
+        <v>1135.4</v>
+      </c>
+      <c r="Z583" s="5" t="n">
+        <v>338.45</v>
+      </c>
+      <c r="AA583" s="5" t="n">
+        <v>321.4</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="inlineStr">
@@ -49520,30 +50172,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D584" s="2" t="inlineStr"/>
-      <c r="E584" s="3" t="n"/>
-      <c r="F584" s="3" t="n"/>
-      <c r="G584" s="3" t="n"/>
-      <c r="H584" s="3" t="n"/>
-      <c r="I584" s="3" t="n"/>
-      <c r="J584" s="3" t="n"/>
-      <c r="K584" s="3" t="n"/>
-      <c r="L584" s="3" t="n"/>
-      <c r="M584" s="3" t="n"/>
-      <c r="N584" s="3" t="n"/>
-      <c r="O584" s="3" t="n"/>
-      <c r="P584" s="3" t="n"/>
-      <c r="Q584" s="3" t="n"/>
-      <c r="R584" s="3" t="n"/>
-      <c r="S584" s="3" t="n"/>
-      <c r="T584" s="3" t="n"/>
-      <c r="U584" s="3" t="n"/>
-      <c r="V584" s="3" t="n"/>
-      <c r="W584" s="3" t="n"/>
-      <c r="X584" s="3" t="n"/>
-      <c r="Y584" s="3" t="n"/>
-      <c r="Z584" s="3" t="n"/>
-      <c r="AA584" s="3" t="n"/>
+      <c r="D584" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E584" s="6" t="n">
+        <v>1388.6</v>
+      </c>
+      <c r="F584" s="5" t="n">
+        <v>1627.8</v>
+      </c>
+      <c r="G584" s="6" t="n">
+        <v>933</v>
+      </c>
+      <c r="H584" s="6" t="n">
+        <v>1373.2</v>
+      </c>
+      <c r="I584" s="5" t="n">
+        <v>1079.75</v>
+      </c>
+      <c r="J584" s="5" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="K584" s="6" t="n">
+        <v>935</v>
+      </c>
+      <c r="L584" s="6" t="n">
+        <v>654.65</v>
+      </c>
+      <c r="M584" s="6" t="n">
+        <v>694.8</v>
+      </c>
+      <c r="N584" s="6" t="n">
+        <v>651.5</v>
+      </c>
+      <c r="O584" s="5" t="n">
+        <v>195.7</v>
+      </c>
+      <c r="P584" s="5" t="n">
+        <v>301.25</v>
+      </c>
+      <c r="Q584" s="6" t="n">
+        <v>490.2</v>
+      </c>
+      <c r="R584" s="6" t="n">
+        <v>505.05</v>
+      </c>
+      <c r="S584" s="6" t="n">
+        <v>1694.6</v>
+      </c>
+      <c r="T584" s="6" t="n">
+        <v>191.19</v>
+      </c>
+      <c r="U584" s="4" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="V584" s="6" t="n">
+        <v>180.95</v>
+      </c>
+      <c r="W584" s="6" t="n">
+        <v>704</v>
+      </c>
+      <c r="X584" s="6" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="Y584" s="6" t="n">
+        <v>1133.2</v>
+      </c>
+      <c r="Z584" s="6" t="n">
+        <v>337.8</v>
+      </c>
+      <c r="AA584" s="6" t="n">
+        <v>321.3</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="inlineStr">
@@ -49561,30 +50263,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D585" s="2" t="inlineStr"/>
-      <c r="E585" s="3" t="n"/>
-      <c r="F585" s="3" t="n"/>
-      <c r="G585" s="3" t="n"/>
-      <c r="H585" s="3" t="n"/>
-      <c r="I585" s="3" t="n"/>
-      <c r="J585" s="3" t="n"/>
-      <c r="K585" s="3" t="n"/>
-      <c r="L585" s="3" t="n"/>
-      <c r="M585" s="3" t="n"/>
-      <c r="N585" s="3" t="n"/>
-      <c r="O585" s="3" t="n"/>
-      <c r="P585" s="3" t="n"/>
-      <c r="Q585" s="3" t="n"/>
-      <c r="R585" s="3" t="n"/>
-      <c r="S585" s="3" t="n"/>
-      <c r="T585" s="3" t="n"/>
-      <c r="U585" s="3" t="n"/>
-      <c r="V585" s="3" t="n"/>
-      <c r="W585" s="3" t="n"/>
-      <c r="X585" s="3" t="n"/>
-      <c r="Y585" s="3" t="n"/>
-      <c r="Z585" s="3" t="n"/>
-      <c r="AA585" s="3" t="n"/>
+      <c r="D585" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E585" s="6" t="n">
+        <v>1387</v>
+      </c>
+      <c r="F585" s="6" t="n">
+        <v>1626.1</v>
+      </c>
+      <c r="G585" s="6" t="n">
+        <v>931.7</v>
+      </c>
+      <c r="H585" s="6" t="n">
+        <v>1371.1</v>
+      </c>
+      <c r="I585" s="6" t="n">
+        <v>1076.05</v>
+      </c>
+      <c r="J585" s="6" t="n">
+        <v>407.2</v>
+      </c>
+      <c r="K585" s="6" t="n">
+        <v>934.3</v>
+      </c>
+      <c r="L585" s="6" t="n">
+        <v>653.25</v>
+      </c>
+      <c r="M585" s="6" t="n">
+        <v>686.5</v>
+      </c>
+      <c r="N585" s="6" t="n">
+        <v>644.5</v>
+      </c>
+      <c r="O585" s="6" t="n">
+        <v>194.97</v>
+      </c>
+      <c r="P585" s="6" t="n">
+        <v>299.3</v>
+      </c>
+      <c r="Q585" s="6" t="n">
+        <v>489.6</v>
+      </c>
+      <c r="R585" s="6" t="n">
+        <v>504.45</v>
+      </c>
+      <c r="S585" s="5" t="n">
+        <v>1696.8</v>
+      </c>
+      <c r="T585" s="4" t="n">
+        <v>191.19</v>
+      </c>
+      <c r="U585" s="6" t="n">
+        <v>286.85</v>
+      </c>
+      <c r="V585" s="6" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="W585" s="6" t="n">
+        <v>698.65</v>
+      </c>
+      <c r="X585" s="6" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="Y585" s="6" t="n">
+        <v>1129.5</v>
+      </c>
+      <c r="Z585" s="6" t="n">
+        <v>337.75</v>
+      </c>
+      <c r="AA585" s="4" t="n">
+        <v>321.3</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="inlineStr">
@@ -49602,30 +50354,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D586" s="2" t="inlineStr"/>
-      <c r="E586" s="3" t="n"/>
-      <c r="F586" s="3" t="n"/>
-      <c r="G586" s="3" t="n"/>
-      <c r="H586" s="3" t="n"/>
-      <c r="I586" s="3" t="n"/>
-      <c r="J586" s="3" t="n"/>
-      <c r="K586" s="3" t="n"/>
-      <c r="L586" s="3" t="n"/>
-      <c r="M586" s="3" t="n"/>
-      <c r="N586" s="3" t="n"/>
-      <c r="O586" s="3" t="n"/>
-      <c r="P586" s="3" t="n"/>
-      <c r="Q586" s="3" t="n"/>
-      <c r="R586" s="3" t="n"/>
-      <c r="S586" s="3" t="n"/>
-      <c r="T586" s="3" t="n"/>
-      <c r="U586" s="3" t="n"/>
-      <c r="V586" s="3" t="n"/>
-      <c r="W586" s="3" t="n"/>
-      <c r="X586" s="3" t="n"/>
-      <c r="Y586" s="3" t="n"/>
-      <c r="Z586" s="3" t="n"/>
-      <c r="AA586" s="3" t="n"/>
+      <c r="D586" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E586" s="6" t="n">
+        <v>1386.5</v>
+      </c>
+      <c r="F586" s="5" t="n">
+        <v>1626.6</v>
+      </c>
+      <c r="G586" s="5" t="n">
+        <v>931.8</v>
+      </c>
+      <c r="H586" s="6" t="n">
+        <v>1369.8</v>
+      </c>
+      <c r="I586" s="6" t="n">
+        <v>1074.5</v>
+      </c>
+      <c r="J586" s="6" t="n">
+        <v>406</v>
+      </c>
+      <c r="K586" s="6" t="n">
+        <v>928.95</v>
+      </c>
+      <c r="L586" s="6" t="n">
+        <v>649.8</v>
+      </c>
+      <c r="M586" s="6" t="n">
+        <v>686.35</v>
+      </c>
+      <c r="N586" s="5" t="n">
+        <v>646.6</v>
+      </c>
+      <c r="O586" s="6" t="n">
+        <v>194.69</v>
+      </c>
+      <c r="P586" s="6" t="n">
+        <v>298.85</v>
+      </c>
+      <c r="Q586" s="6" t="n">
+        <v>489</v>
+      </c>
+      <c r="R586" s="6" t="n">
+        <v>503.45</v>
+      </c>
+      <c r="S586" s="6" t="n">
+        <v>1695.7</v>
+      </c>
+      <c r="T586" s="5" t="n">
+        <v>191.98</v>
+      </c>
+      <c r="U586" s="6" t="n">
+        <v>286.35</v>
+      </c>
+      <c r="V586" s="6" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="W586" s="5" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="X586" s="6" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="Y586" s="6" t="n">
+        <v>1127.4</v>
+      </c>
+      <c r="Z586" s="5" t="n">
+        <v>337.9</v>
+      </c>
+      <c r="AA586" s="6" t="n">
+        <v>320.75</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="inlineStr">
@@ -49643,30 +50445,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D587" s="2" t="inlineStr"/>
-      <c r="E587" s="3" t="n"/>
-      <c r="F587" s="3" t="n"/>
-      <c r="G587" s="3" t="n"/>
-      <c r="H587" s="3" t="n"/>
-      <c r="I587" s="3" t="n"/>
-      <c r="J587" s="3" t="n"/>
-      <c r="K587" s="3" t="n"/>
-      <c r="L587" s="3" t="n"/>
-      <c r="M587" s="3" t="n"/>
-      <c r="N587" s="3" t="n"/>
-      <c r="O587" s="3" t="n"/>
-      <c r="P587" s="3" t="n"/>
-      <c r="Q587" s="3" t="n"/>
-      <c r="R587" s="3" t="n"/>
-      <c r="S587" s="3" t="n"/>
-      <c r="T587" s="3" t="n"/>
-      <c r="U587" s="3" t="n"/>
-      <c r="V587" s="3" t="n"/>
-      <c r="W587" s="3" t="n"/>
-      <c r="X587" s="3" t="n"/>
-      <c r="Y587" s="3" t="n"/>
-      <c r="Z587" s="3" t="n"/>
-      <c r="AA587" s="3" t="n"/>
+      <c r="D587" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E587" s="5" t="n">
+        <v>1387.8</v>
+      </c>
+      <c r="F587" s="6" t="n">
+        <v>1626.3</v>
+      </c>
+      <c r="G587" s="6" t="n">
+        <v>931.5</v>
+      </c>
+      <c r="H587" s="5" t="n">
+        <v>1371</v>
+      </c>
+      <c r="I587" s="5" t="n">
+        <v>1074.75</v>
+      </c>
+      <c r="J587" s="5" t="n">
+        <v>406.3</v>
+      </c>
+      <c r="K587" s="5" t="n">
+        <v>931.65</v>
+      </c>
+      <c r="L587" s="5" t="n">
+        <v>653.1</v>
+      </c>
+      <c r="M587" s="5" t="n">
+        <v>695.3</v>
+      </c>
+      <c r="N587" s="5" t="n">
+        <v>649.55</v>
+      </c>
+      <c r="O587" s="5" t="n">
+        <v>195.39</v>
+      </c>
+      <c r="P587" s="5" t="n">
+        <v>299</v>
+      </c>
+      <c r="Q587" s="5" t="n">
+        <v>489.35</v>
+      </c>
+      <c r="R587" s="5" t="n">
+        <v>503.6</v>
+      </c>
+      <c r="S587" s="5" t="n">
+        <v>1698.2</v>
+      </c>
+      <c r="T587" s="5" t="n">
+        <v>192.66</v>
+      </c>
+      <c r="U587" s="5" t="n">
+        <v>286.55</v>
+      </c>
+      <c r="V587" s="5" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="W587" s="5" t="n">
+        <v>704.2</v>
+      </c>
+      <c r="X587" s="4" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="Y587" s="5" t="n">
+        <v>1132.3</v>
+      </c>
+      <c r="Z587" s="5" t="n">
+        <v>338.55</v>
+      </c>
+      <c r="AA587" s="5" t="n">
+        <v>321.25</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="inlineStr">
@@ -49684,30 +50536,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D588" s="2" t="inlineStr"/>
-      <c r="E588" s="3" t="n"/>
-      <c r="F588" s="3" t="n"/>
-      <c r="G588" s="3" t="n"/>
-      <c r="H588" s="3" t="n"/>
-      <c r="I588" s="3" t="n"/>
-      <c r="J588" s="3" t="n"/>
-      <c r="K588" s="3" t="n"/>
-      <c r="L588" s="3" t="n"/>
-      <c r="M588" s="3" t="n"/>
-      <c r="N588" s="3" t="n"/>
-      <c r="O588" s="3" t="n"/>
-      <c r="P588" s="3" t="n"/>
-      <c r="Q588" s="3" t="n"/>
-      <c r="R588" s="3" t="n"/>
-      <c r="S588" s="3" t="n"/>
-      <c r="T588" s="3" t="n"/>
-      <c r="U588" s="3" t="n"/>
-      <c r="V588" s="3" t="n"/>
-      <c r="W588" s="3" t="n"/>
-      <c r="X588" s="3" t="n"/>
-      <c r="Y588" s="3" t="n"/>
-      <c r="Z588" s="3" t="n"/>
-      <c r="AA588" s="3" t="n"/>
+      <c r="D588" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E588" s="5" t="n">
+        <v>1391.7</v>
+      </c>
+      <c r="F588" s="5" t="n">
+        <v>1629</v>
+      </c>
+      <c r="G588" s="5" t="n">
+        <v>932.45</v>
+      </c>
+      <c r="H588" s="5" t="n">
+        <v>1373.8</v>
+      </c>
+      <c r="I588" s="5" t="n">
+        <v>1077.55</v>
+      </c>
+      <c r="J588" s="5" t="n">
+        <v>408.7</v>
+      </c>
+      <c r="K588" s="5" t="n">
+        <v>934.8</v>
+      </c>
+      <c r="L588" s="5" t="n">
+        <v>655</v>
+      </c>
+      <c r="M588" s="5" t="n">
+        <v>702.5</v>
+      </c>
+      <c r="N588" s="5" t="n">
+        <v>653.25</v>
+      </c>
+      <c r="O588" s="5" t="n">
+        <v>195.74</v>
+      </c>
+      <c r="P588" s="5" t="n">
+        <v>299.55</v>
+      </c>
+      <c r="Q588" s="5" t="n">
+        <v>490.75</v>
+      </c>
+      <c r="R588" s="5" t="n">
+        <v>505.1</v>
+      </c>
+      <c r="S588" s="5" t="n">
+        <v>1700.1</v>
+      </c>
+      <c r="T588" s="5" t="n">
+        <v>193.12</v>
+      </c>
+      <c r="U588" s="5" t="n">
+        <v>286.95</v>
+      </c>
+      <c r="V588" s="5" t="n">
+        <v>181.02</v>
+      </c>
+      <c r="W588" s="5" t="n">
+        <v>707.6</v>
+      </c>
+      <c r="X588" s="6" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="Y588" s="6" t="n">
+        <v>1131.3</v>
+      </c>
+      <c r="Z588" s="5" t="n">
+        <v>340</v>
+      </c>
+      <c r="AA588" s="5" t="n">
+        <v>322.3</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="inlineStr">
@@ -49725,30 +50627,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D589" s="2" t="inlineStr"/>
-      <c r="E589" s="3" t="n"/>
-      <c r="F589" s="3" t="n"/>
-      <c r="G589" s="3" t="n"/>
-      <c r="H589" s="3" t="n"/>
-      <c r="I589" s="3" t="n"/>
-      <c r="J589" s="3" t="n"/>
-      <c r="K589" s="3" t="n"/>
-      <c r="L589" s="3" t="n"/>
-      <c r="M589" s="3" t="n"/>
-      <c r="N589" s="3" t="n"/>
-      <c r="O589" s="3" t="n"/>
-      <c r="P589" s="3" t="n"/>
-      <c r="Q589" s="3" t="n"/>
-      <c r="R589" s="3" t="n"/>
-      <c r="S589" s="3" t="n"/>
-      <c r="T589" s="3" t="n"/>
-      <c r="U589" s="3" t="n"/>
-      <c r="V589" s="3" t="n"/>
-      <c r="W589" s="3" t="n"/>
-      <c r="X589" s="3" t="n"/>
-      <c r="Y589" s="3" t="n"/>
-      <c r="Z589" s="3" t="n"/>
-      <c r="AA589" s="3" t="n"/>
+      <c r="D589" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E589" s="5" t="n">
+        <v>1396.5</v>
+      </c>
+      <c r="F589" s="5" t="n">
+        <v>1634.5</v>
+      </c>
+      <c r="G589" s="5" t="n">
+        <v>934</v>
+      </c>
+      <c r="H589" s="6" t="n">
+        <v>1373.1</v>
+      </c>
+      <c r="I589" s="5" t="n">
+        <v>1078.75</v>
+      </c>
+      <c r="J589" s="5" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="K589" s="5" t="n">
+        <v>936.95</v>
+      </c>
+      <c r="L589" s="5" t="n">
+        <v>655.35</v>
+      </c>
+      <c r="M589" s="6" t="n">
+        <v>693</v>
+      </c>
+      <c r="N589" s="6" t="n">
+        <v>646.1</v>
+      </c>
+      <c r="O589" s="5" t="n">
+        <v>195.86</v>
+      </c>
+      <c r="P589" s="5" t="n">
+        <v>299.7</v>
+      </c>
+      <c r="Q589" s="6" t="n">
+        <v>490.7</v>
+      </c>
+      <c r="R589" s="5" t="n">
+        <v>506.8</v>
+      </c>
+      <c r="S589" s="5" t="n">
+        <v>1704.3</v>
+      </c>
+      <c r="T589" s="5" t="n">
+        <v>193.31</v>
+      </c>
+      <c r="U589" s="5" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="V589" s="6" t="n">
+        <v>181.01</v>
+      </c>
+      <c r="W589" s="6" t="n">
+        <v>703.1</v>
+      </c>
+      <c r="X589" s="5" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="Y589" s="5" t="n">
+        <v>1136</v>
+      </c>
+      <c r="Z589" s="6" t="n">
+        <v>339.3</v>
+      </c>
+      <c r="AA589" s="5" t="n">
+        <v>323.1</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="inlineStr">
@@ -49766,30 +50718,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D590" s="2" t="inlineStr"/>
-      <c r="E590" s="3" t="n"/>
-      <c r="F590" s="3" t="n"/>
-      <c r="G590" s="3" t="n"/>
-      <c r="H590" s="3" t="n"/>
-      <c r="I590" s="3" t="n"/>
-      <c r="J590" s="3" t="n"/>
-      <c r="K590" s="3" t="n"/>
-      <c r="L590" s="3" t="n"/>
-      <c r="M590" s="3" t="n"/>
-      <c r="N590" s="3" t="n"/>
-      <c r="O590" s="3" t="n"/>
-      <c r="P590" s="3" t="n"/>
-      <c r="Q590" s="3" t="n"/>
-      <c r="R590" s="3" t="n"/>
-      <c r="S590" s="3" t="n"/>
-      <c r="T590" s="3" t="n"/>
-      <c r="U590" s="3" t="n"/>
-      <c r="V590" s="3" t="n"/>
-      <c r="W590" s="3" t="n"/>
-      <c r="X590" s="3" t="n"/>
-      <c r="Y590" s="3" t="n"/>
-      <c r="Z590" s="3" t="n"/>
-      <c r="AA590" s="3" t="n"/>
+      <c r="D590" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E590" s="6" t="n">
+        <v>1395.6</v>
+      </c>
+      <c r="F590" s="5" t="n">
+        <v>1634.8</v>
+      </c>
+      <c r="G590" s="6" t="n">
+        <v>933.8</v>
+      </c>
+      <c r="H590" s="5" t="n">
+        <v>1373.3</v>
+      </c>
+      <c r="I590" s="6" t="n">
+        <v>1077</v>
+      </c>
+      <c r="J590" s="6" t="n">
+        <v>409.1</v>
+      </c>
+      <c r="K590" s="6" t="n">
+        <v>932.5</v>
+      </c>
+      <c r="L590" s="6" t="n">
+        <v>655.2</v>
+      </c>
+      <c r="M590" s="6" t="n">
+        <v>690.7</v>
+      </c>
+      <c r="N590" s="6" t="n">
+        <v>639.4</v>
+      </c>
+      <c r="O590" s="5" t="n">
+        <v>196.13</v>
+      </c>
+      <c r="P590" s="6" t="n">
+        <v>299.05</v>
+      </c>
+      <c r="Q590" s="5" t="n">
+        <v>490.75</v>
+      </c>
+      <c r="R590" s="6" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="S590" s="6" t="n">
+        <v>1700</v>
+      </c>
+      <c r="T590" s="6" t="n">
+        <v>193.18</v>
+      </c>
+      <c r="U590" s="5" t="n">
+        <v>288.6</v>
+      </c>
+      <c r="V590" s="6" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="W590" s="6" t="n">
+        <v>699.45</v>
+      </c>
+      <c r="X590" s="5" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="Y590" s="6" t="n">
+        <v>1134.9</v>
+      </c>
+      <c r="Z590" s="5" t="n">
+        <v>340.65</v>
+      </c>
+      <c r="AA590" s="6" t="n">
+        <v>322.8</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="inlineStr">
@@ -49807,30 +50809,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D591" s="2" t="inlineStr"/>
-      <c r="E591" s="3" t="n"/>
-      <c r="F591" s="3" t="n"/>
-      <c r="G591" s="3" t="n"/>
-      <c r="H591" s="3" t="n"/>
-      <c r="I591" s="3" t="n"/>
-      <c r="J591" s="3" t="n"/>
-      <c r="K591" s="3" t="n"/>
-      <c r="L591" s="3" t="n"/>
-      <c r="M591" s="3" t="n"/>
-      <c r="N591" s="3" t="n"/>
-      <c r="O591" s="3" t="n"/>
-      <c r="P591" s="3" t="n"/>
-      <c r="Q591" s="3" t="n"/>
-      <c r="R591" s="3" t="n"/>
-      <c r="S591" s="3" t="n"/>
-      <c r="T591" s="3" t="n"/>
-      <c r="U591" s="3" t="n"/>
-      <c r="V591" s="3" t="n"/>
-      <c r="W591" s="3" t="n"/>
-      <c r="X591" s="3" t="n"/>
-      <c r="Y591" s="3" t="n"/>
-      <c r="Z591" s="3" t="n"/>
-      <c r="AA591" s="3" t="n"/>
+      <c r="D591" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E591" s="6" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F591" s="5" t="n">
+        <v>1637.5</v>
+      </c>
+      <c r="G591" s="6" t="n">
+        <v>932.35</v>
+      </c>
+      <c r="H591" s="6" t="n">
+        <v>1372</v>
+      </c>
+      <c r="I591" s="5" t="n">
+        <v>1080</v>
+      </c>
+      <c r="J591" s="6" t="n">
+        <v>409</v>
+      </c>
+      <c r="K591" s="6" t="n">
+        <v>931.5</v>
+      </c>
+      <c r="L591" s="6" t="n">
+        <v>653.5</v>
+      </c>
+      <c r="M591" s="6" t="n">
+        <v>682.65</v>
+      </c>
+      <c r="N591" s="6" t="n">
+        <v>636.15</v>
+      </c>
+      <c r="O591" s="6" t="n">
+        <v>195.7</v>
+      </c>
+      <c r="P591" s="6" t="n">
+        <v>298</v>
+      </c>
+      <c r="Q591" s="6" t="n">
+        <v>489</v>
+      </c>
+      <c r="R591" s="5" t="n">
+        <v>507.2</v>
+      </c>
+      <c r="S591" s="5" t="n">
+        <v>1702.8</v>
+      </c>
+      <c r="T591" s="5" t="n">
+        <v>193.44</v>
+      </c>
+      <c r="U591" s="6" t="n">
+        <v>287.95</v>
+      </c>
+      <c r="V591" s="5" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="W591" s="6" t="n">
+        <v>696.3</v>
+      </c>
+      <c r="X591" s="5" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="Y591" s="6" t="n">
+        <v>1134.8</v>
+      </c>
+      <c r="Z591" s="6" t="n">
+        <v>340.2</v>
+      </c>
+      <c r="AA591" s="6" t="n">
+        <v>321.85</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="inlineStr">
@@ -49848,30 +50900,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D592" s="2" t="inlineStr"/>
-      <c r="E592" s="3" t="n"/>
-      <c r="F592" s="3" t="n"/>
-      <c r="G592" s="3" t="n"/>
-      <c r="H592" s="3" t="n"/>
-      <c r="I592" s="3" t="n"/>
-      <c r="J592" s="3" t="n"/>
-      <c r="K592" s="3" t="n"/>
-      <c r="L592" s="3" t="n"/>
-      <c r="M592" s="3" t="n"/>
-      <c r="N592" s="3" t="n"/>
-      <c r="O592" s="3" t="n"/>
-      <c r="P592" s="3" t="n"/>
-      <c r="Q592" s="3" t="n"/>
-      <c r="R592" s="3" t="n"/>
-      <c r="S592" s="3" t="n"/>
-      <c r="T592" s="3" t="n"/>
-      <c r="U592" s="3" t="n"/>
-      <c r="V592" s="3" t="n"/>
-      <c r="W592" s="3" t="n"/>
-      <c r="X592" s="3" t="n"/>
-      <c r="Y592" s="3" t="n"/>
-      <c r="Z592" s="3" t="n"/>
-      <c r="AA592" s="3" t="n"/>
+      <c r="D592" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E592" s="6" t="n">
+        <v>1391.6</v>
+      </c>
+      <c r="F592" s="5" t="n">
+        <v>1639.5</v>
+      </c>
+      <c r="G592" s="5" t="n">
+        <v>932.9</v>
+      </c>
+      <c r="H592" s="6" t="n">
+        <v>1370.1</v>
+      </c>
+      <c r="I592" s="6" t="n">
+        <v>1078.7</v>
+      </c>
+      <c r="J592" s="5" t="n">
+        <v>410</v>
+      </c>
+      <c r="K592" s="5" t="n">
+        <v>931.85</v>
+      </c>
+      <c r="L592" s="6" t="n">
+        <v>652</v>
+      </c>
+      <c r="M592" s="6" t="n">
+        <v>674.75</v>
+      </c>
+      <c r="N592" s="6" t="n">
+        <v>632</v>
+      </c>
+      <c r="O592" s="5" t="n">
+        <v>195.91</v>
+      </c>
+      <c r="P592" s="5" t="n">
+        <v>298.2</v>
+      </c>
+      <c r="Q592" s="5" t="n">
+        <v>489.2</v>
+      </c>
+      <c r="R592" s="5" t="n">
+        <v>507.45</v>
+      </c>
+      <c r="S592" s="6" t="n">
+        <v>1701.2</v>
+      </c>
+      <c r="T592" s="6" t="n">
+        <v>193.02</v>
+      </c>
+      <c r="U592" s="6" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="V592" s="6" t="n">
+        <v>180.33</v>
+      </c>
+      <c r="W592" s="6" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="X592" s="5" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="Y592" s="5" t="n">
+        <v>1135.8</v>
+      </c>
+      <c r="Z592" s="6" t="n">
+        <v>339.8</v>
+      </c>
+      <c r="AA592" s="5" t="n">
+        <v>322.1</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="inlineStr">
@@ -49889,30 +50991,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D593" s="2" t="inlineStr"/>
-      <c r="E593" s="3" t="n"/>
-      <c r="F593" s="3" t="n"/>
-      <c r="G593" s="3" t="n"/>
-      <c r="H593" s="3" t="n"/>
-      <c r="I593" s="3" t="n"/>
-      <c r="J593" s="3" t="n"/>
-      <c r="K593" s="3" t="n"/>
-      <c r="L593" s="3" t="n"/>
-      <c r="M593" s="3" t="n"/>
-      <c r="N593" s="3" t="n"/>
-      <c r="O593" s="3" t="n"/>
-      <c r="P593" s="3" t="n"/>
-      <c r="Q593" s="3" t="n"/>
-      <c r="R593" s="3" t="n"/>
-      <c r="S593" s="3" t="n"/>
-      <c r="T593" s="3" t="n"/>
-      <c r="U593" s="3" t="n"/>
-      <c r="V593" s="3" t="n"/>
-      <c r="W593" s="3" t="n"/>
-      <c r="X593" s="3" t="n"/>
-      <c r="Y593" s="3" t="n"/>
-      <c r="Z593" s="3" t="n"/>
-      <c r="AA593" s="3" t="n"/>
+      <c r="D593" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E593" s="5" t="n">
+        <v>1394.1</v>
+      </c>
+      <c r="F593" s="5" t="n">
+        <v>1640.6</v>
+      </c>
+      <c r="G593" s="6" t="n">
+        <v>929.45</v>
+      </c>
+      <c r="H593" s="5" t="n">
+        <v>1371.2</v>
+      </c>
+      <c r="I593" s="6" t="n">
+        <v>1078.05</v>
+      </c>
+      <c r="J593" s="6" t="n">
+        <v>407.7</v>
+      </c>
+      <c r="K593" s="6" t="n">
+        <v>930.1</v>
+      </c>
+      <c r="L593" s="5" t="n">
+        <v>655.05</v>
+      </c>
+      <c r="M593" s="5" t="n">
+        <v>692.8</v>
+      </c>
+      <c r="N593" s="5" t="n">
+        <v>633.1</v>
+      </c>
+      <c r="O593" s="5" t="n">
+        <v>196.94</v>
+      </c>
+      <c r="P593" s="5" t="n">
+        <v>299.4</v>
+      </c>
+      <c r="Q593" s="5" t="n">
+        <v>492.05</v>
+      </c>
+      <c r="R593" s="5" t="n">
+        <v>509.25</v>
+      </c>
+      <c r="S593" s="6" t="n">
+        <v>1698.5</v>
+      </c>
+      <c r="T593" s="5" t="n">
+        <v>193.42</v>
+      </c>
+      <c r="U593" s="5" t="n">
+        <v>287.85</v>
+      </c>
+      <c r="V593" s="5" t="n">
+        <v>180.65</v>
+      </c>
+      <c r="W593" s="6" t="n">
+        <v>683.4</v>
+      </c>
+      <c r="X593" s="5" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="Y593" s="6" t="n">
+        <v>1133.5</v>
+      </c>
+      <c r="Z593" s="5" t="n">
+        <v>342.7</v>
+      </c>
+      <c r="AA593" s="4" t="n">
+        <v>322.1</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="inlineStr">
@@ -49930,30 +51082,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D594" s="2" t="inlineStr"/>
-      <c r="E594" s="3" t="n"/>
-      <c r="F594" s="3" t="n"/>
-      <c r="G594" s="3" t="n"/>
-      <c r="H594" s="3" t="n"/>
-      <c r="I594" s="3" t="n"/>
-      <c r="J594" s="3" t="n"/>
-      <c r="K594" s="3" t="n"/>
-      <c r="L594" s="3" t="n"/>
-      <c r="M594" s="3" t="n"/>
-      <c r="N594" s="3" t="n"/>
-      <c r="O594" s="3" t="n"/>
-      <c r="P594" s="3" t="n"/>
-      <c r="Q594" s="3" t="n"/>
-      <c r="R594" s="3" t="n"/>
-      <c r="S594" s="3" t="n"/>
-      <c r="T594" s="3" t="n"/>
-      <c r="U594" s="3" t="n"/>
-      <c r="V594" s="3" t="n"/>
-      <c r="W594" s="3" t="n"/>
-      <c r="X594" s="3" t="n"/>
-      <c r="Y594" s="3" t="n"/>
-      <c r="Z594" s="3" t="n"/>
-      <c r="AA594" s="3" t="n"/>
+      <c r="D594" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E594" s="5" t="n">
+        <v>1396.8</v>
+      </c>
+      <c r="F594" s="5" t="n">
+        <v>1643</v>
+      </c>
+      <c r="G594" s="6" t="n">
+        <v>928.5</v>
+      </c>
+      <c r="H594" s="6" t="n">
+        <v>1369.9</v>
+      </c>
+      <c r="I594" s="6" t="n">
+        <v>1077.05</v>
+      </c>
+      <c r="J594" s="4" t="n">
+        <v>407.7</v>
+      </c>
+      <c r="K594" s="6" t="n">
+        <v>927.25</v>
+      </c>
+      <c r="L594" s="5" t="n">
+        <v>656.75</v>
+      </c>
+      <c r="M594" s="6" t="n">
+        <v>678.05</v>
+      </c>
+      <c r="N594" s="6" t="n">
+        <v>624.9</v>
+      </c>
+      <c r="O594" s="6" t="n">
+        <v>196.35</v>
+      </c>
+      <c r="P594" s="6" t="n">
+        <v>297.7</v>
+      </c>
+      <c r="Q594" s="5" t="n">
+        <v>492.8</v>
+      </c>
+      <c r="R594" s="5" t="n">
+        <v>510.5</v>
+      </c>
+      <c r="S594" s="6" t="n">
+        <v>1690.5</v>
+      </c>
+      <c r="T594" s="6" t="n">
+        <v>193.11</v>
+      </c>
+      <c r="U594" s="6" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="V594" s="5" t="n">
+        <v>180.88</v>
+      </c>
+      <c r="W594" s="6" t="n">
+        <v>678</v>
+      </c>
+      <c r="X594" s="6" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="Y594" s="5" t="n">
+        <v>1133.8</v>
+      </c>
+      <c r="Z594" s="5" t="n">
+        <v>344.2</v>
+      </c>
+      <c r="AA594" s="5" t="n">
+        <v>322.2</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="inlineStr">
@@ -49971,30 +51173,80 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D595" s="2" t="inlineStr"/>
-      <c r="E595" s="3" t="n"/>
-      <c r="F595" s="3" t="n"/>
-      <c r="G595" s="3" t="n"/>
-      <c r="H595" s="3" t="n"/>
-      <c r="I595" s="3" t="n"/>
-      <c r="J595" s="3" t="n"/>
-      <c r="K595" s="3" t="n"/>
-      <c r="L595" s="3" t="n"/>
-      <c r="M595" s="3" t="n"/>
-      <c r="N595" s="3" t="n"/>
-      <c r="O595" s="3" t="n"/>
-      <c r="P595" s="3" t="n"/>
-      <c r="Q595" s="3" t="n"/>
-      <c r="R595" s="3" t="n"/>
-      <c r="S595" s="3" t="n"/>
-      <c r="T595" s="3" t="n"/>
-      <c r="U595" s="3" t="n"/>
-      <c r="V595" s="3" t="n"/>
-      <c r="W595" s="3" t="n"/>
-      <c r="X595" s="3" t="n"/>
-      <c r="Y595" s="3" t="n"/>
-      <c r="Z595" s="3" t="n"/>
-      <c r="AA595" s="3" t="n"/>
+      <c r="D595" s="2" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E595" s="5" t="n">
+        <v>1397</v>
+      </c>
+      <c r="F595" s="6" t="n">
+        <v>1641.2</v>
+      </c>
+      <c r="G595" s="5" t="n">
+        <v>929.25</v>
+      </c>
+      <c r="H595" s="6" t="n">
+        <v>1366</v>
+      </c>
+      <c r="I595" s="5" t="n">
+        <v>1078</v>
+      </c>
+      <c r="J595" s="5" t="n">
+        <v>408</v>
+      </c>
+      <c r="K595" s="5" t="n">
+        <v>931.45</v>
+      </c>
+      <c r="L595" s="6" t="n">
+        <v>654.65</v>
+      </c>
+      <c r="M595" s="6" t="n">
+        <v>675.1</v>
+      </c>
+      <c r="N595" s="5" t="n">
+        <v>625.9</v>
+      </c>
+      <c r="O595" s="5" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="P595" s="6" t="n">
+        <v>297.3</v>
+      </c>
+      <c r="Q595" s="6" t="n">
+        <v>492.15</v>
+      </c>
+      <c r="R595" s="6" t="n">
+        <v>510</v>
+      </c>
+      <c r="S595" s="5" t="n">
+        <v>1691.4</v>
+      </c>
+      <c r="T595" s="6" t="n">
+        <v>192.6</v>
+      </c>
+      <c r="U595" s="6" t="n">
+        <v>287</v>
+      </c>
+      <c r="V595" s="6" t="n">
+        <v>180.22</v>
+      </c>
+      <c r="W595" s="5" t="n">
+        <v>680</v>
+      </c>
+      <c r="X595" s="6" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="Y595" s="6" t="n">
+        <v>1132</v>
+      </c>
+      <c r="Z595" s="6" t="n">
+        <v>344</v>
+      </c>
+      <c r="AA595" s="6" t="n">
+        <v>322.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
